--- a/Software/Comm Protocol/主从控制通信协议.xlsx
+++ b/Software/Comm Protocol/主从控制通信协议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ZHUOZHUOO--Github\DreamChaser-Arm\Software\Comm Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEF0254-3DBA-41DD-856F-5E27BE266B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910BA030-F64A-4F08-87FE-BECFF881D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t>FDCAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>错误状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x410</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,6 +277,150 @@
   </si>
   <si>
     <t>0b100 0111 00XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度反馈+状态反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theta_fed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDCAN1 Filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDCAN2 Filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDCAN滤波器配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slave FDCAN1 Filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤波模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送(Transmit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收(Receive)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b101 0001 00XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b101 0010 00XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b101 0011 00XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b101 0100 00XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b101 0101 00XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b101 0110 00XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b101 0111 00XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b101 0000 0000 (0x500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b100 0XXX 0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b111 1111 1100 (0x7FA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x420~0x470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDCAN_FILTER_MASK 掩码模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataLength = FDCAN_DLC_BYTES_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b111 1000 1100 (0x78C)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,15 +476,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -360,13 +525,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1292</xdr:colOff>
+      <xdr:colOff>3248075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2401957</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>172647</xdr:rowOff>
     </xdr:to>
@@ -397,7 +562,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3952096" y="0"/>
+          <a:off x="7940173" y="0"/>
           <a:ext cx="2400665" cy="2843789"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -673,22 +838,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.73046875" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.796875" customWidth="1"/>
-    <col min="5" max="5" width="41.1328125" customWidth="1"/>
+    <col min="5" max="5" width="51.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -696,15 +861,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -712,13 +877,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -726,7 +891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -734,310 +899,482 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="2" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D21">
+      <c r="D54" s="1">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="E54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Software/Comm Protocol/主从控制通信协议.xlsx
+++ b/Software/Comm Protocol/主从控制通信协议.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ZHUOZHUOO--Github\DreamChaser-Arm\Software\Comm Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910BA030-F64A-4F08-87FE-BECFF881D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45A5A15-49E9-43F1-91A8-15BC7E0865CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
   <si>
     <t>FDCAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>32~64bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DataLength = FDCAN_DLC_BYTES_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角度反馈+状态反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Theta_fed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,14 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DataLength = FDCAN_DLC_BYTES_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,6 +404,58 @@
   </si>
   <si>
     <t>0b111 1000 1100 (0x78C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID = BASE_ID + 0x03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iq_Ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iq_fed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID = BASE_ID + 0x04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID的低8位为CMD，用于区分不同指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataLength = FDCAN_DLC_BYTES_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度+电流反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流期望配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataLength = FDCAN_DLC_BYTES_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~64Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点数类型，设置电机期望电流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +479,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +498,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -476,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,6 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,15 +567,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3248075</xdr:colOff>
+      <xdr:colOff>653710</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>172647</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3656773</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -562,8 +604,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7940173" y="0"/>
-          <a:ext cx="2400665" cy="2843789"/>
+          <a:off x="5697819" y="0"/>
+          <a:ext cx="3003063" cy="3557380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -838,22 +880,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.73046875" customWidth="1"/>
     <col min="2" max="2" width="26.46484375" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" customWidth="1"/>
     <col min="4" max="4" width="6.796875" customWidth="1"/>
     <col min="5" max="5" width="51.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -861,15 +903,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -877,13 +919,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -891,7 +933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -899,15 +941,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -915,13 +962,13 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -929,10 +976,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -940,10 +987,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -951,10 +998,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -962,10 +1009,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -973,10 +1020,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -984,12 +1031,12 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>24</v>
@@ -1000,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1014,10 +1061,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1025,10 +1072,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1036,10 +1083,10 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1047,10 +1094,10 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1058,10 +1105,10 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1069,211 +1116,209 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+      <c r="A28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="B39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="1">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="1">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="1">
-        <v>5</v>
+      <c r="A49" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>34</v>
@@ -1282,15 +1327,15 @@
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="1">
-        <v>4</v>
+      <c r="A50" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>34</v>
@@ -1299,66 +1344,47 @@
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="1">
-        <v>3</v>
-      </c>
-      <c r="B51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="1">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A52" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="1">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>39</v>
+      <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>34</v>
@@ -1367,14 +1393,135 @@
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D52:E52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
